--- a/Documents/1_TestCases/TC04_Integration/TC04_Integration_TestCase.xlsx
+++ b/Documents/1_TestCases/TC04_Integration/TC04_Integration_TestCase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\1_TestCases\TC04_Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7B4ADA-5925-46BE-84F5-BE23AC36D086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05730429-4014-41B2-B6DB-4E5FCBB67500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,6 +261,66 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -307,48 +367,28 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -373,30 +413,28 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -420,44 +458,6 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -472,51 +472,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:I498" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:I498" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B2:I498" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Description/Title" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{F94C22D6-3429-461D-B592-CC7FBFDC611E}" name="Notes" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Description/Title" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{F94C22D6-3429-461D-B592-CC7FBFDC611E}" name="Notes" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB308C90-2F4D-4279-9313-B3D8011F963F}" name="Table72" displayName="Table72" ref="B2:I498" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB308C90-2F4D-4279-9313-B3D8011F963F}" name="Table72" displayName="Table72" ref="B2:I498" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B2:I498" xr:uid="{AB308C90-2F4D-4279-9313-B3D8011F963F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{06F25A28-C208-4006-BE0B-308F1D3EB48B}" name="Test ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{D39B2091-1ED3-42E4-B60C-F75ED331FBB0}" name="Description/Title" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{EA3C17B7-FFC2-4FD0-AE84-68056734D7D1}" name="Preconditions" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{9C3AD697-F400-4ED1-B9B1-D3EC952F5B53}" name="Test Steps" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{B7DA7382-B44D-4E2B-9013-328EBA457A84}" name="Expected Result" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{100CBDC2-0A35-476E-93B9-A92F3FFD1B83}" name="Actual Result" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{5D2A9243-11F0-492D-8EC6-CC4BF5EC7A4C}" name="Notes" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{D7AB1AFF-8027-4241-83CF-43C818C2CA29}" name="Status" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{06F25A28-C208-4006-BE0B-308F1D3EB48B}" name="Test ID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D39B2091-1ED3-42E4-B60C-F75ED331FBB0}" name="Description/Title" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{EA3C17B7-FFC2-4FD0-AE84-68056734D7D1}" name="Preconditions" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{9C3AD697-F400-4ED1-B9B1-D3EC952F5B53}" name="Test Steps" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B7DA7382-B44D-4E2B-9013-328EBA457A84}" name="Expected Result" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{100CBDC2-0A35-476E-93B9-A92F3FFD1B83}" name="Actual Result" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{5D2A9243-11F0-492D-8EC6-CC4BF5EC7A4C}" name="Notes" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{D7AB1AFF-8027-4241-83CF-43C818C2CA29}" name="Status" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36A3C88C-E1FF-4577-8307-5F9D66D9DF7A}" name="Table723" displayName="Table723" ref="B2:I498" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36A3C88C-E1FF-4577-8307-5F9D66D9DF7A}" name="Table723" displayName="Table723" ref="B2:I498" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B2:I498" xr:uid="{36A3C88C-E1FF-4577-8307-5F9D66D9DF7A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2110ECD5-6829-4BED-808D-9DB14190EB5E}" name="Test ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{040CCF45-7AD7-48E7-8717-D36327B63F1F}" name="Description/Title" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1E32317B-780E-43CB-94CB-B029D7D6F5D6}" name="Preconditions" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0CA99EA7-A9A5-4A39-8158-EC936E3E7BC4}" name="Test Steps" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E7A9954C-3A0E-4F6A-8671-8EFF9CFD8810}" name="Expected Result" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6F3BC353-8760-4CA2-B0C0-80F66A9B6737}" name="Actual Result" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{BE2A0A60-E1C7-457B-B1A7-4A7D036166E6}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{57DF62B6-C272-48DE-8109-11B281020321}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2110ECD5-6829-4BED-808D-9DB14190EB5E}" name="Test ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{040CCF45-7AD7-48E7-8717-D36327B63F1F}" name="Description/Title" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{1E32317B-780E-43CB-94CB-B029D7D6F5D6}" name="Preconditions" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0CA99EA7-A9A5-4A39-8158-EC936E3E7BC4}" name="Test Steps" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E7A9954C-3A0E-4F6A-8671-8EFF9CFD8810}" name="Expected Result" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{6F3BC353-8760-4CA2-B0C0-80F66A9B6737}" name="Actual Result" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{BE2A0A60-E1C7-457B-B1A7-4A7D036166E6}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{57DF62B6-C272-48DE-8109-11B281020321}" name="Status" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -931,10 +931,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -956,7 +956,7 @@
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>44</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="2:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1094,10 +1094,10 @@
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1195,10 +1195,10 @@
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/1_TestCases/TC04_Integration/TC04_Integration_TestCase.xlsx
+++ b/Documents/1_TestCases/TC04_Integration/TC04_Integration_TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\1_TestCases\TC04_Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05730429-4014-41B2-B6DB-4E5FCBB67500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A53B7F-CEF3-4E84-BBF4-656916BCD607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -956,7 +956,7 @@
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
